--- a/documentos/Entrega 2/Gestão de Projetos/enrega_2_gestão_de_projetos_pertcpm.xlsx
+++ b/documentos/Entrega 2/Gestão de Projetos/enrega_2_gestão_de_projetos_pertcpm.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23025627\Desktop\Leo-Aimar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\Documents\GitHub\Projeto2\documentos\Entrega 2\Gestão de Projetos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F66BC6-0D41-4706-854F-23C5ECEB25B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F05A67-3F3E-4CF9-B8BA-0318B3B8E4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proposta" sheetId="1" r:id="rId1"/>
     <sheet name="Diagrama de rede-precedência" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="131">
-  <si>
-    <t>Projeto para construir um Software</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="130">
   <si>
     <t>Descrição</t>
   </si>
@@ -738,8 +748,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="46">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -765,7 +775,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -791,45 +800,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -839,10 +819,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,21 +841,15 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3294,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3311,7 +3285,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -3320,33 +3294,33 @@
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="D6" s="5">
         <v>45691</v>
@@ -3360,13 +3334,13 @@
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="5">
         <v>45691</v>
@@ -3380,13 +3354,13 @@
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="D8" s="5">
         <v>45691</v>
@@ -3400,13 +3374,13 @@
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D9" s="5">
         <v>45691</v>
@@ -3420,13 +3394,13 @@
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D10" s="5">
         <v>45691</v>
@@ -3440,13 +3414,13 @@
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="5">
         <v>45691</v>
@@ -3460,13 +3434,13 @@
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D12" s="5">
         <v>45728</v>
@@ -3480,13 +3454,13 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="5">
         <v>45728</v>
@@ -3500,13 +3474,13 @@
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D14" s="5">
         <v>45728</v>
@@ -3520,13 +3494,13 @@
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D15" s="5">
         <v>45733</v>
@@ -3540,13 +3514,13 @@
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D16" s="5">
         <v>45733</v>
@@ -3560,13 +3534,13 @@
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D17" s="5">
         <v>45733</v>
@@ -3580,13 +3554,13 @@
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D18" s="5">
         <v>45733</v>
@@ -3600,13 +3574,13 @@
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D19" s="5">
         <v>45733</v>
@@ -3620,13 +3594,13 @@
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D20" s="5">
         <v>45733</v>
@@ -3640,13 +3614,13 @@
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D21" s="5">
         <v>45733</v>
@@ -3660,13 +3634,13 @@
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D22" s="5">
         <v>45733</v>
@@ -3680,13 +3654,13 @@
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D23" s="5">
         <v>45733</v>
@@ -3700,13 +3674,13 @@
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D24" s="5">
         <v>45778</v>
@@ -3720,13 +3694,13 @@
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D25" s="5">
         <v>45778</v>
@@ -3740,13 +3714,13 @@
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D26" s="5">
         <v>45778</v>
@@ -3760,13 +3734,13 @@
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D27" s="5">
         <v>45778</v>
@@ -3780,13 +3754,13 @@
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D28" s="5">
         <v>45778</v>
@@ -3800,13 +3774,13 @@
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D29" s="5">
         <v>45778</v>
@@ -3820,13 +3794,13 @@
     </row>
     <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D30" s="5">
         <v>45788</v>
@@ -3840,13 +3814,13 @@
     </row>
     <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D31" s="5">
         <v>45791</v>
@@ -3860,13 +3834,13 @@
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D32" s="5">
         <v>45791</v>
@@ -3880,13 +3854,13 @@
     </row>
     <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D33" s="5">
         <v>45796</v>
@@ -3900,13 +3874,13 @@
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D34" s="5">
         <v>45796</v>
@@ -3920,13 +3894,13 @@
     </row>
     <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D35" s="5">
         <v>45796</v>
@@ -3940,13 +3914,13 @@
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D36" s="5">
         <v>45796</v>
@@ -3960,13 +3934,13 @@
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D37" s="5">
         <v>45799</v>
@@ -3980,13 +3954,13 @@
     </row>
     <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D38" s="5">
         <v>45799</v>
@@ -4970,9 +4944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BB1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5000,8 +4972,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>107</v>
+      <c r="A1" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="7"/>
@@ -5049,10 +5021,10 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="X2" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y2" s="53">
+      <c r="X2" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" s="41">
         <v>9</v>
       </c>
       <c r="Z2" s="7"/>
@@ -5074,18 +5046,18 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="53">
+      <c r="O3" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="41">
         <v>44</v>
       </c>
       <c r="Q3" s="7"/>
-      <c r="X3" s="15">
+      <c r="X3" s="14">
         <f>P9</f>
         <v>170</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Y3" s="15">
         <f>X3+Y2</f>
         <v>179</v>
       </c>
@@ -5107,20 +5079,20 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="15">
+      <c r="O4" s="14">
         <f>M9</f>
         <v>82</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="15">
         <f>O4+P3</f>
         <v>126</v>
       </c>
       <c r="Q4" s="7"/>
-      <c r="X4" s="19">
+      <c r="X4" s="18">
         <f>Y4-Y2</f>
         <v>170</v>
       </c>
-      <c r="Y4" s="20">
+      <c r="Y4" s="19">
         <v>179</v>
       </c>
       <c r="Z4" s="7"/>
@@ -5141,11 +5113,11 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="19">
+      <c r="O5" s="18">
         <f>P5-P3</f>
         <v>135</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="19">
         <v>179</v>
       </c>
       <c r="Q5" s="7"/>
@@ -5153,11 +5125,11 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
-      <c r="X5" s="39">
+      <c r="X5" s="30">
         <f>X3-X4</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="39">
+      <c r="Y5" s="30">
         <f>Y3-Y4</f>
         <v>0</v>
       </c>
@@ -5167,32 +5139,32 @@
     </row>
     <row r="6" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="48">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="36">
         <f t="shared" ref="O6:P6" si="0">O5-O4</f>
         <v>53</v>
       </c>
-      <c r="P6" s="48">
+      <c r="P6" s="36">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -5205,33 +5177,33 @@
     </row>
     <row r="7" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6">
         <v>10</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
       <c r="Q7" s="7"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="V7" s="53">
+      <c r="U7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="V7" s="41">
         <v>9</v>
       </c>
       <c r="W7" s="7"/>
@@ -5241,44 +5213,44 @@
     </row>
     <row r="8" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6">
         <v>36</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="55">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="43">
         <v>36</v>
       </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="53">
+      <c r="N8" s="34"/>
+      <c r="O8" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="41">
         <v>44</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="T8" s="7"/>
-      <c r="U8" s="15">
+      <c r="U8" s="14">
         <f>S19</f>
         <v>126</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="15">
         <f>U8+V7</f>
         <v>135</v>
       </c>
@@ -5286,46 +5258,46 @@
       <c r="BB8" s="7"/>
     </row>
     <row r="9" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>22</v>
+      <c r="A9" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6">
         <v>36</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="L9" s="13">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="L9" s="12">
         <f>J11</f>
         <v>46</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <f>L9+M8</f>
         <v>82</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="14">
         <f>P4</f>
         <v>126</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="15">
         <f>O9+P8</f>
         <v>170</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="T9" s="7"/>
-      <c r="U9" s="19">
+      <c r="U9" s="18">
         <f>V9-V7</f>
         <v>161</v>
       </c>
-      <c r="V9" s="20">
+      <c r="V9" s="19">
         <f>X4</f>
         <v>170</v>
       </c>
@@ -5333,105 +5305,105 @@
       <c r="BB9" s="7"/>
     </row>
     <row r="10" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>13</v>
+      <c r="A10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D10" s="6">
         <v>36</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="51">
+      <c r="E10" s="34"/>
+      <c r="F10" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="39">
         <v>10</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="51">
+      <c r="H10" s="34"/>
+      <c r="I10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="39">
         <v>36</v>
       </c>
-      <c r="K10" s="46"/>
-      <c r="L10" s="17">
+      <c r="K10" s="34"/>
+      <c r="L10" s="16">
         <f>M10-M8</f>
         <v>99</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="17">
         <f>O5</f>
         <v>135</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="18">
         <f>P10-P8</f>
         <v>126</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="19">
         <f>X4</f>
         <v>170</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="48">
+      <c r="U10" s="36">
         <f t="shared" ref="U10:V10" si="1">U9-U8</f>
         <v>35</v>
       </c>
-      <c r="V10" s="48">
+      <c r="V10" s="36">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="BB10" s="7"/>
     </row>
     <row r="11" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>16</v>
+      <c r="A11" s="29" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="11">
         <v>36</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="13">
+      <c r="E11" s="35"/>
+      <c r="F11" s="12">
         <v>0</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <f>G10+F11</f>
         <v>10</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="13">
+      <c r="H11" s="35"/>
+      <c r="I11" s="12">
         <f>G11</f>
         <v>10</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <f>I11+J10</f>
         <v>46</v>
       </c>
-      <c r="K11" s="46"/>
-      <c r="L11" s="49">
+      <c r="K11" s="34"/>
+      <c r="L11" s="37">
         <f t="shared" ref="L11:M11" si="2">L10-L9</f>
         <v>53</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="37">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="30">
         <f>O9-O10</f>
         <v>0</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="30">
         <f>P9-P10</f>
         <v>0</v>
       </c>
@@ -5442,93 +5414,93 @@
       <c r="BB11" s="7"/>
     </row>
     <row r="12" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>25</v>
+      <c r="A12" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D12" s="11">
         <v>36</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="17">
+      <c r="E12" s="35"/>
+      <c r="F12" s="16">
         <f>G12-G10</f>
         <v>0</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <f>MIN(I12,I20)</f>
         <v>10</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="17">
+      <c r="H12" s="35"/>
+      <c r="I12" s="16">
         <f>J12-J10</f>
         <v>63</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <f>L10</f>
         <v>99</v>
       </c>
-      <c r="K12" s="47"/>
+      <c r="K12" s="35"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="V12" s="53">
+      <c r="U12" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="V12" s="41">
         <v>9</v>
       </c>
       <c r="BB12" s="7"/>
     </row>
     <row r="13" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>28</v>
+      <c r="A13" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>118</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="D13" s="11">
         <v>4</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="22">
+      <c r="E13" s="35"/>
+      <c r="F13" s="21">
         <f>F11-F12</f>
         <v>0</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <f>G11-G12</f>
         <v>0</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="49">
+      <c r="H13" s="35"/>
+      <c r="I13" s="37">
         <f t="shared" ref="I13:J13" si="3">I12-I11</f>
         <v>53</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="37">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="53">
+      <c r="K13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="41">
         <v>44</v>
       </c>
-      <c r="U13" s="15">
+      <c r="U13" s="14">
         <f>S19</f>
         <v>126</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="15">
         <f>U13+V12</f>
         <v>135</v>
       </c>
@@ -5536,41 +5508,41 @@
       <c r="BB13" s="7"/>
     </row>
     <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>31</v>
+      <c r="A14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="15">
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="14">
         <f>J19</f>
         <v>46</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="15">
         <f>O14+P13</f>
         <v>90</v>
       </c>
-      <c r="U14" s="19">
+      <c r="U14" s="18">
         <f>V14-V12</f>
         <v>170</v>
       </c>
-      <c r="V14" s="20">
+      <c r="V14" s="19">
         <v>179</v>
       </c>
       <c r="Z14" s="7"/>
@@ -5578,40 +5550,40 @@
       <c r="BB14" s="7"/>
     </row>
     <row r="15" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>34</v>
+      <c r="A15" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="11">
         <v>4</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="19">
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="18">
         <f>P15-P13</f>
         <v>135</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="19">
         <v>179</v>
       </c>
-      <c r="U15" s="48">
+      <c r="U15" s="36">
         <f t="shared" ref="U15:V15" si="4">U14-U13</f>
         <v>44</v>
       </c>
-      <c r="V15" s="48">
+      <c r="V15" s="36">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
@@ -5619,169 +5591,169 @@
       <c r="BB15" s="7"/>
     </row>
     <row r="16" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>37</v>
+      <c r="A16" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>119</v>
+        <v>35</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="D16" s="11">
         <v>44</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="53">
+      <c r="E16" s="35"/>
+      <c r="F16" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="41">
         <v>44</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="48">
+      <c r="H16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="36">
         <f t="shared" ref="O16:P16" si="5">O15-O14</f>
         <v>89</v>
       </c>
-      <c r="P16" s="48">
+      <c r="P16" s="36">
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="BB16" s="7"/>
     </row>
     <row r="17" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>40</v>
+      <c r="A17" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>120</v>
+        <v>38</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="D17" s="11">
         <v>44</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="32">
+      <c r="E17" s="35"/>
+      <c r="F17" s="14">
         <v>0</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="15">
         <f>F17+G16</f>
         <v>44</v>
       </c>
-      <c r="H17" s="47"/>
-      <c r="N17" s="47"/>
+      <c r="H17" s="35"/>
+      <c r="N17" s="35"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="BB17" s="7"/>
     </row>
     <row r="18" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>46</v>
+      <c r="A18" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="D18" s="11">
         <v>44</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="36">
+      <c r="E18" s="35"/>
+      <c r="F18" s="18">
         <f>G18-G16</f>
         <v>135</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="19">
         <v>179</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="50" t="s">
+      <c r="H18" s="35"/>
+      <c r="I18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="39">
+        <v>36</v>
+      </c>
+      <c r="N18" s="35"/>
+      <c r="R18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="41">
+        <v>44</v>
+      </c>
+      <c r="T18" s="7"/>
+      <c r="U18" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" s="41">
+        <v>44</v>
+      </c>
+      <c r="X18" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y18" s="41">
+        <v>9</v>
+      </c>
+      <c r="BB18" s="7"/>
+    </row>
+    <row r="19" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="51">
-        <v>36</v>
-      </c>
-      <c r="N18" s="47"/>
-      <c r="R18" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="S18" s="53">
+      <c r="B19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T18" s="7"/>
-      <c r="U18" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="V18" s="53">
-        <v>44</v>
-      </c>
-      <c r="X18" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y18" s="53">
-        <v>9</v>
-      </c>
-      <c r="BB18" s="7"/>
-    </row>
-    <row r="19" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>121</v>
+      <c r="C19" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="D19" s="11">
         <v>44</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48">
+      <c r="E19" s="35"/>
+      <c r="F19" s="36">
         <f t="shared" ref="F19:G19" si="6">F18-F17</f>
         <v>135</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="36">
         <f t="shared" si="6"/>
         <v>135</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="13">
+      <c r="H19" s="35"/>
+      <c r="I19" s="12">
         <f>G11</f>
         <v>10</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <f>I19+J18</f>
         <v>46</v>
       </c>
-      <c r="N19" s="47"/>
-      <c r="R19" s="15">
+      <c r="N19" s="35"/>
+      <c r="R19" s="14">
         <f>M24</f>
         <v>82</v>
       </c>
-      <c r="S19" s="33">
+      <c r="S19" s="15">
         <f>R19+S18</f>
         <v>126</v>
       </c>
       <c r="T19" s="7"/>
-      <c r="U19" s="15">
+      <c r="U19" s="14">
         <f>S19</f>
         <v>126</v>
       </c>
-      <c r="V19" s="16">
+      <c r="V19" s="15">
         <f>U19+V18</f>
         <v>170</v>
       </c>
-      <c r="X19" s="15">
+      <c r="X19" s="14">
         <f>V19</f>
         <v>170</v>
       </c>
-      <c r="Y19" s="16">
+      <c r="Y19" s="15">
         <f>X19+Y18</f>
         <v>179</v>
       </c>
@@ -5790,104 +5762,104 @@
       <c r="BB19" s="7"/>
     </row>
     <row r="20" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>49</v>
+      <c r="A20" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D20" s="11">
         <v>44</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="17">
+      <c r="E20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="16">
         <f>J20-J18</f>
         <v>10</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="17">
         <f>MIN(I39,L37,L31,L25,O15,O10,R20,R26)</f>
         <v>46</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="R20" s="19">
+      <c r="K20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="R20" s="18">
         <f>S20-S18</f>
         <v>82</v>
       </c>
-      <c r="S20" s="37">
+      <c r="S20" s="19">
         <f>MIN(U20,U14,U9,U26)</f>
         <v>126</v>
       </c>
       <c r="T20" s="7"/>
-      <c r="U20" s="19">
+      <c r="U20" s="18">
         <f>V20-V18</f>
         <v>126</v>
       </c>
-      <c r="V20" s="20">
+      <c r="V20" s="19">
         <f>MIN(X4,F30)</f>
         <v>170</v>
       </c>
-      <c r="X20" s="19">
+      <c r="X20" s="18">
         <f>Y20-Y18</f>
         <v>170</v>
       </c>
-      <c r="Y20" s="20">
+      <c r="Y20" s="19">
         <v>179</v>
       </c>
       <c r="AF20" s="7"/>
       <c r="BB20" s="7"/>
     </row>
     <row r="21" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>43</v>
+      <c r="A21" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>18</v>
+        <v>50</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D21" s="11">
         <v>44</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="22">
+      <c r="E21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="21">
         <f>I19-I20</f>
         <v>0</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="21">
         <f>J19-J20</f>
         <v>0</v>
       </c>
-      <c r="K21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="R21" s="39">
+      <c r="K21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="R21" s="30">
         <f>R19-R20</f>
         <v>0</v>
       </c>
-      <c r="S21" s="41">
+      <c r="S21" s="30">
         <f>S19-S20</f>
         <v>0</v>
       </c>
       <c r="T21" s="7"/>
-      <c r="U21" s="39">
+      <c r="U21" s="30">
         <f>U19-U20</f>
         <v>0</v>
       </c>
-      <c r="V21" s="39">
+      <c r="V21" s="30">
         <f>V19-V20</f>
         <v>0</v>
       </c>
-      <c r="X21" s="23">
+      <c r="X21" s="22">
         <f>X19-X20</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="23">
+      <c r="Y21" s="22">
         <f>Y19-Y20</f>
         <v>0</v>
       </c>
@@ -5895,119 +5867,119 @@
     </row>
     <row r="22" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="11">
         <v>44</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="53">
+      <c r="E22" s="35"/>
+      <c r="F22" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="41">
         <v>44</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
     </row>
     <row r="23" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="11">
         <v>44</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="15">
+      <c r="E23" s="35"/>
+      <c r="F23" s="14">
         <v>0</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <f>F23+G22</f>
         <v>44</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="51">
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="39">
         <v>36</v>
       </c>
-      <c r="N23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
+      <c r="N23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
       <c r="AC23" s="7"/>
     </row>
     <row r="24" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D24" s="11">
         <v>44</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="19">
+      <c r="E24" s="35"/>
+      <c r="F24" s="18">
         <f>G24-G22</f>
         <v>135</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="19">
         <v>179</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="13">
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="12">
         <f>J19</f>
         <v>46</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="13">
         <f>L24+M23</f>
         <v>82</v>
       </c>
-      <c r="N24" s="47"/>
-      <c r="R24" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="S24" s="53">
+      <c r="N24" s="35"/>
+      <c r="R24" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="41">
         <v>44</v>
       </c>
-      <c r="U24" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="V24" s="53">
+      <c r="U24" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" s="41">
         <v>9</v>
       </c>
       <c r="X24" s="7"/>
-      <c r="AA24" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB24" s="53">
+      <c r="AA24" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB24" s="41">
         <v>2</v>
       </c>
       <c r="AC24" s="7"/>
@@ -6025,62 +5997,62 @@
     </row>
     <row r="25" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>122</v>
+        <v>60</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="D25" s="11">
         <v>9</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48">
+      <c r="E25" s="35"/>
+      <c r="F25" s="36">
         <f t="shared" ref="F25:G25" si="7">F24-F23</f>
         <v>135</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="36">
         <f t="shared" si="7"/>
         <v>135</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="17">
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="16">
         <f>M25-M23</f>
         <v>46</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="17">
         <f>MIN(R20,R26)</f>
         <v>82</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="R25" s="15">
+      <c r="N25" s="35"/>
+      <c r="R25" s="14">
         <f>M24</f>
         <v>82</v>
       </c>
-      <c r="S25" s="16">
+      <c r="S25" s="15">
         <f>R25+S24</f>
         <v>126</v>
       </c>
-      <c r="U25" s="15">
+      <c r="U25" s="14">
         <f>S19</f>
         <v>126</v>
       </c>
-      <c r="V25" s="16">
+      <c r="V25" s="15">
         <f>U25+V24</f>
         <v>135</v>
       </c>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="AA25" s="40">
+      <c r="AA25" s="31">
         <f>MAX(Z33,V25)</f>
         <v>137</v>
       </c>
-      <c r="AB25" s="33">
+      <c r="AB25" s="15">
         <f>AA25+AB24</f>
         <v>139</v>
       </c>
@@ -6097,57 +6069,57 @@
     </row>
     <row r="26" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>24</v>
+        <v>63</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="D26" s="11">
         <v>9</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="22">
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="21">
         <f>L24-L25</f>
         <v>0</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="21">
         <f>M24-M25</f>
         <v>0</v>
       </c>
-      <c r="N26" s="47"/>
-      <c r="R26" s="19">
+      <c r="N26" s="35"/>
+      <c r="R26" s="18">
         <f>S26-S24</f>
         <v>82</v>
       </c>
-      <c r="S26" s="20">
+      <c r="S26" s="19">
         <f>U26</f>
         <v>126</v>
       </c>
       <c r="T26" s="7"/>
-      <c r="U26" s="19">
+      <c r="U26" s="18">
         <f>V26-V24</f>
         <v>126</v>
       </c>
-      <c r="V26" s="20">
+      <c r="V26" s="19">
         <f>MIN(Y34,AA26)</f>
         <v>135</v>
       </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="AA26" s="36">
+      <c r="AA26" s="18">
         <f>AB26-AB24</f>
         <v>137</v>
       </c>
-      <c r="AB26" s="37">
+      <c r="AB26" s="19">
         <f>AD33</f>
         <v>139</v>
       </c>
@@ -6166,50 +6138,50 @@
     </row>
     <row r="27" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>39</v>
+        <v>66</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="11">
         <v>9</v>
       </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="R27" s="39">
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="R27" s="30">
         <f t="shared" ref="R27:S27" si="8">R26-R25</f>
         <v>0</v>
       </c>
-      <c r="S27" s="39">
+      <c r="S27" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T27" s="7"/>
-      <c r="U27" s="23">
+      <c r="U27" s="22">
         <f t="shared" ref="U27:V27" si="9">U26-U25</f>
         <v>0</v>
       </c>
-      <c r="V27" s="23">
+      <c r="V27" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X27" s="7"/>
-      <c r="AA27" s="38">
+      <c r="AA27" s="22">
         <f>AA26-AA25</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="38">
+      <c r="AB27" s="22">
         <f>AB26-AB25</f>
         <v>0</v>
       </c>
@@ -6229,33 +6201,33 @@
     </row>
     <row r="28" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="D28" s="11">
         <v>9</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="53">
+      <c r="E28" s="35"/>
+      <c r="F28" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="41">
         <v>2</v>
       </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
@@ -6273,38 +6245,38 @@
     </row>
     <row r="29" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>39</v>
+        <v>72</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D29" s="11">
         <v>9</v>
       </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="15">
+      <c r="E29" s="35"/>
+      <c r="F29" s="14">
         <v>0</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="15">
         <f>F29+G28</f>
         <v>2</v>
       </c>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="51">
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="39">
         <v>36</v>
       </c>
-      <c r="N29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
+      <c r="N29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -6325,42 +6297,42 @@
     </row>
     <row r="30" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>123</v>
+        <v>75</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="D30" s="11">
         <v>9</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="19">
+      <c r="E30" s="35"/>
+      <c r="F30" s="18">
         <f>G30-G28</f>
         <v>177</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="19">
         <v>179</v>
       </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="13">
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="12">
         <f>J19</f>
         <v>46</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M30" s="13">
         <f>L30+M29</f>
         <v>82</v>
       </c>
-      <c r="N30" s="47"/>
-      <c r="R30" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="S30" s="51">
+      <c r="N30" s="35"/>
+      <c r="R30" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" s="39">
         <v>4</v>
       </c>
       <c r="T30" s="7"/>
@@ -6377,52 +6349,52 @@
     </row>
     <row r="31" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
       </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="48">
+      <c r="E31" s="35"/>
+      <c r="F31" s="36">
         <f t="shared" ref="F31:G31" si="10">F30-F29</f>
         <v>177</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="36">
         <f t="shared" si="10"/>
         <v>177</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="17">
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="16">
         <f>M31-M29</f>
         <v>90</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M31" s="17">
         <f>MIN(O44,R32,L37)</f>
         <v>126</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="R31" s="13">
+      <c r="N31" s="35"/>
+      <c r="R31" s="12">
         <f>M30</f>
         <v>82</v>
       </c>
-      <c r="S31" s="14">
+      <c r="S31" s="13">
         <f>R31+S30</f>
         <v>86</v>
       </c>
       <c r="T31" s="7"/>
-      <c r="AD31" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE31" s="53">
+      <c r="AD31" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE31" s="41">
         <v>2</v>
       </c>
       <c r="AI31" s="7"/>
@@ -6437,600 +6409,600 @@
       <c r="BB31" s="7"/>
     </row>
     <row r="32" spans="1:54" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>86</v>
+      <c r="A32" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="11">
         <v>4</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="49">
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="37">
         <f>L31-L30</f>
         <v>44</v>
       </c>
-      <c r="M32" s="49">
+      <c r="M32" s="37">
         <f>M31-M30</f>
         <v>44</v>
       </c>
-      <c r="N32" s="47"/>
-      <c r="R32" s="17">
+      <c r="N32" s="35"/>
+      <c r="R32" s="16">
         <f>S32-S30</f>
         <v>175</v>
       </c>
-      <c r="S32" s="18">
+      <c r="S32" s="17">
         <v>179</v>
       </c>
       <c r="T32" s="7"/>
-      <c r="Y32" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z32" s="53">
+      <c r="Y32" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z32" s="41">
         <v>2</v>
       </c>
-      <c r="AD32" s="40">
+      <c r="AD32" s="31">
         <f>MAX(Z33,AB25)</f>
         <v>139</v>
       </c>
-      <c r="AE32" s="33">
+      <c r="AE32" s="15">
         <f>AD32+AE31</f>
         <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>89</v>
+      <c r="A33" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="D33" s="11">
         <v>4</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="R33" s="49">
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="R33" s="37">
         <f t="shared" ref="R33:S33" si="11">R32-R31</f>
         <v>93</v>
       </c>
-      <c r="S33" s="49">
+      <c r="S33" s="37">
         <f t="shared" si="11"/>
         <v>93</v>
       </c>
       <c r="T33" s="7"/>
-      <c r="Y33" s="40">
+      <c r="Y33" s="31">
         <f>MAX(V25,P43,J51)</f>
         <v>135</v>
       </c>
-      <c r="Z33" s="33">
+      <c r="Z33" s="15">
         <f>Y33+Z32</f>
         <v>137</v>
       </c>
-      <c r="AD33" s="36">
+      <c r="AD33" s="18">
         <f>AE33-AE31</f>
         <v>139</v>
       </c>
-      <c r="AE33" s="37">
+      <c r="AE33" s="19">
         <f>MIN(AE42,AI47)</f>
         <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>80</v>
+      <c r="A34" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>124</v>
+        <v>87</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="D34" s="11">
         <v>2</v>
       </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
       <c r="T34" s="7"/>
-      <c r="Y34" s="36">
+      <c r="Y34" s="18">
         <f>Z34-Z32</f>
         <v>135</v>
       </c>
-      <c r="Z34" s="37">
+      <c r="Z34" s="19">
         <f>MIN(AA26,AD33,AE42)</f>
         <v>137</v>
       </c>
-      <c r="AD34" s="38">
+      <c r="AD34" s="22">
         <f>AD32-AD33</f>
         <v>0</v>
       </c>
-      <c r="AE34" s="38">
+      <c r="AE34" s="22">
         <f>AE32-AE33</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>92</v>
+      <c r="A35" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>125</v>
+        <v>90</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="D35" s="11">
         <v>2</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="M35" s="51">
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="39">
         <v>4</v>
       </c>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
       <c r="T35" s="7"/>
-      <c r="Y35" s="38">
+      <c r="Y35" s="22">
         <f t="shared" ref="Y35:Z35" si="12">Y34-Y33</f>
         <v>0</v>
       </c>
-      <c r="Z35" s="38">
+      <c r="Z35" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>95</v>
+      <c r="A36" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>126</v>
+        <v>93</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="D36" s="11">
         <v>2</v>
       </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="13">
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="12">
         <f>M30</f>
         <v>82</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="13">
         <f>L36+M35</f>
         <v>86</v>
       </c>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="R36" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="S36" s="51">
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="R36" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="S36" s="39">
         <v>4</v>
       </c>
       <c r="T36" s="7"/>
-      <c r="AL36" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM36" s="53">
+      <c r="AL36" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM36" s="41">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>83</v>
+      <c r="A37" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>127</v>
+        <v>96</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37" s="53">
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="41">
         <v>44</v>
       </c>
-      <c r="K37" s="47"/>
-      <c r="L37" s="17">
+      <c r="K37" s="35"/>
+      <c r="L37" s="16">
         <f>M37-M35</f>
         <v>171</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M37" s="17">
         <f>R38</f>
         <v>175</v>
       </c>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="R37" s="13">
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="R37" s="12">
         <f>M36</f>
         <v>86</v>
       </c>
-      <c r="S37" s="14">
+      <c r="S37" s="13">
         <f>R37+S36</f>
         <v>90</v>
       </c>
-      <c r="AL37" s="40">
+      <c r="AL37" s="31">
         <f>AJ46</f>
         <v>147</v>
       </c>
-      <c r="AM37" s="33">
+      <c r="AM37" s="15">
         <f>AL37+AM36</f>
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>128</v>
+        <v>99</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="D38" s="11">
         <v>6</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="32">
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="14">
         <f>J19</f>
         <v>46</v>
       </c>
-      <c r="J38" s="33">
+      <c r="J38" s="15">
         <f>I38+J37</f>
         <v>90</v>
       </c>
-      <c r="K38" s="47"/>
-      <c r="L38" s="49">
+      <c r="K38" s="35"/>
+      <c r="L38" s="37">
         <f t="shared" ref="L38:M38" si="13">L37-L36</f>
         <v>89</v>
       </c>
-      <c r="M38" s="49">
+      <c r="M38" s="37">
         <f t="shared" si="13"/>
         <v>89</v>
       </c>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="R38" s="17">
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="R38" s="16">
         <f>S38-S36</f>
         <v>175</v>
       </c>
-      <c r="S38" s="18">
+      <c r="S38" s="17">
         <v>179</v>
       </c>
-      <c r="AL38" s="36">
+      <c r="AL38" s="18">
         <f>AM38-AM36</f>
         <v>147</v>
       </c>
-      <c r="AM38" s="37">
+      <c r="AM38" s="19">
         <f>AM37</f>
         <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>99</v>
       </c>
       <c r="D39" s="11">
         <v>6</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="36">
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="18">
         <f>J39-J37</f>
         <v>135</v>
       </c>
-      <c r="J39" s="37">
+      <c r="J39" s="19">
         <v>179</v>
       </c>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="R39" s="49">
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="R39" s="37">
         <f t="shared" ref="R39:S39" si="14">R38-R37</f>
         <v>89</v>
       </c>
-      <c r="S39" s="49">
+      <c r="S39" s="37">
         <f t="shared" si="14"/>
         <v>89</v>
       </c>
-      <c r="AL39" s="41">
+      <c r="AL39" s="30">
         <f t="shared" ref="AL39:AM39" si="15">AL38-AL37</f>
         <v>0</v>
       </c>
-      <c r="AM39" s="41">
+      <c r="AM39" s="30">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I40" s="48">
+      <c r="I40" s="36">
         <f t="shared" ref="I40:J40" si="16">I39-I38</f>
         <v>89</v>
       </c>
-      <c r="J40" s="48">
+      <c r="J40" s="36">
         <f t="shared" si="16"/>
         <v>89</v>
       </c>
-      <c r="AE40" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF40" s="53">
+      <c r="AE40" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF40" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="X41" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y41" s="53">
+      <c r="A41" s="32"/>
+      <c r="X41" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y41" s="41">
         <v>4</v>
       </c>
-      <c r="AE41" s="40">
+      <c r="AE41" s="31">
         <f>MAX(Z33,AE32)</f>
         <v>141</v>
       </c>
-      <c r="AF41" s="33">
+      <c r="AF41" s="15">
         <f>AE41+AF40</f>
         <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>108</v>
+      <c r="A42" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="O42" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="P42" s="53">
+      <c r="O42" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" s="41">
         <v>9</v>
       </c>
-      <c r="X42" s="40">
+      <c r="X42" s="31">
         <f>J51</f>
         <v>6</v>
       </c>
-      <c r="Y42" s="33">
+      <c r="Y42" s="15">
         <f>X42+Y41</f>
         <v>10</v>
       </c>
-      <c r="AE42" s="36">
+      <c r="AE42" s="18">
         <f>AF42-AF40</f>
         <v>151</v>
       </c>
-      <c r="AF42" s="37">
+      <c r="AF42" s="19">
         <f>AM38</f>
         <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="43"/>
-      <c r="O43" s="15">
+        <v>108</v>
+      </c>
+      <c r="B43" s="45"/>
+      <c r="O43" s="14">
         <f>M30</f>
         <v>82</v>
       </c>
-      <c r="P43" s="16">
+      <c r="P43" s="15">
         <f>O43+P42</f>
         <v>91</v>
       </c>
-      <c r="X43" s="36">
+      <c r="X43" s="18">
         <f>Y43-Y41</f>
         <v>175</v>
       </c>
-      <c r="Y43" s="37">
+      <c r="Y43" s="19">
         <v>179</v>
       </c>
-      <c r="AE43" s="48">
+      <c r="AE43" s="36">
         <f>AE42-AE41</f>
         <v>10</v>
       </c>
-      <c r="AF43" s="48">
+      <c r="AF43" s="36">
         <f>AF42-AF41</f>
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="O44" s="19">
+      <c r="O44" s="18">
         <f>P44-P42</f>
         <v>126</v>
       </c>
-      <c r="P44" s="20">
+      <c r="P44" s="19">
         <f>Y34</f>
         <v>135</v>
       </c>
-      <c r="X44" s="48">
+      <c r="X44" s="36">
         <f t="shared" ref="X44:Y44" si="17">X43-X42</f>
         <v>169</v>
       </c>
-      <c r="Y44" s="48">
+      <c r="Y44" s="36">
         <f t="shared" si="17"/>
         <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="O45" s="48">
+      <c r="O45" s="36">
         <f t="shared" ref="O45:P45" si="18">O44-O43</f>
         <v>44</v>
       </c>
-      <c r="P45" s="48">
+      <c r="P45" s="36">
         <f t="shared" si="18"/>
         <v>44</v>
       </c>
-      <c r="AI45" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ45" s="53">
+      <c r="AI45" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ45" s="41">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI46" s="40">
+      <c r="AI46" s="31">
         <f>MAX(AE32,J51)</f>
         <v>141</v>
       </c>
-      <c r="AJ46" s="33">
+      <c r="AJ46" s="15">
         <f>AI46+AJ45</f>
         <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI47" s="36">
+      <c r="AI47" s="18">
         <f>AJ47-AJ45</f>
         <v>141</v>
       </c>
-      <c r="AJ47" s="37">
+      <c r="AJ47" s="19">
         <f>AJ46</f>
         <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AI48" s="41">
+      <c r="AI48" s="30">
         <f t="shared" ref="AI48:AJ48" si="19">AI47-AI46</f>
         <v>0</v>
       </c>
-      <c r="AJ48" s="41">
+      <c r="AJ48" s="30">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="9:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="9:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I50" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="J50" s="53">
+      <c r="I50" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J50" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="9:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I51" s="15">
+      <c r="I51" s="14">
         <f>G29</f>
         <v>2</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="15">
         <f>I51+J50</f>
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="9:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I52" s="19">
+      <c r="I52" s="18">
         <f>J52-J50</f>
         <v>131</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="19">
         <f>MIN(X43,Y34,AI47)</f>
         <v>135</v>
       </c>
     </row>
     <row r="53" spans="9:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="48">
+      <c r="I53" s="36">
         <f t="shared" ref="I53:J53" si="20">I52-I51</f>
         <v>129</v>
       </c>
-      <c r="J53" s="48">
+      <c r="J53" s="36">
         <f t="shared" si="20"/>
         <v>129</v>
       </c>
@@ -7986,8 +7958,8 @@
   <mergeCells count="1">
     <mergeCell ref="A43:B43"/>
   </mergeCells>
-  <conditionalFormatting sqref="F13:G13 F19:G19 F25:G25 F31:G31 I21:J21 I13:J13 I40:J40 I53:J53 L26:M26 L32:M32 L38:M38 O45:P45 O16:P16 L11:M11 O11:P11 O6:P6 R39:S39 R33:S33 R27:S27 R21:S21 U21:V21 U27:V27 X44:Y44 Y35:Z35 X21:Y21 AA27:AB27 AD34:AE34 AE43:AF43 AI48:AJ48 AL39:AM39 X5:Y5 U10:V10 U15:V15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="X5:Y5 O6:P6 U10:V10 L11:M11 O11:P11 F13:G13 I13:J13 U15:V15 O16:P16 F19:G19 I21:J21 R21:S21 U21:V21 X21:Y21 F25:G25 L26:M26 R27:S27 U27:V27 AA27:AB27 F31:G31 L32:M32 R33:S33 AD34:AE34 Y35:Z35 L38:M38 R39:S39 AL39:AM39 I40:J40 AE43:AF43 X44:Y44 O45:P45 AI48:AJ48 I53:J53">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
